--- a/mywords.xlsx
+++ b/mywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Delermando</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">concepts </t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Metadata</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +784,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/mywords.xlsx
+++ b/mywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Delermando</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Data Scientist</t>
   </si>
   <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>Neural Networks</t>
-  </si>
-  <si>
-    <t>Deep Learning</t>
-  </si>
-  <si>
     <t xml:space="preserve">quer </t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t xml:space="preserve">Conheça </t>
   </si>
   <si>
-    <t>essa aplicação</t>
-  </si>
-  <si>
     <t xml:space="preserve">Você </t>
   </si>
   <si>
@@ -92,15 +80,9 @@
     <t xml:space="preserve">the core </t>
   </si>
   <si>
-    <t xml:space="preserve">idea of teaching </t>
-  </si>
-  <si>
     <t>using data</t>
   </si>
   <si>
-    <t>Multiple Variables</t>
-  </si>
-  <si>
     <t>regularization</t>
   </si>
   <si>
@@ -113,12 +95,6 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>Unsupervised Learning</t>
-  </si>
-  <si>
-    <t>Dimensionality Reduction</t>
-  </si>
-  <si>
     <t>Linguagem R</t>
   </si>
   <si>
@@ -135,6 +111,150 @@
   </si>
   <si>
     <t>Metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">device </t>
+  </si>
+  <si>
+    <t xml:space="preserve">that </t>
+  </si>
+  <si>
+    <t xml:space="preserve">perceives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">its </t>
+  </si>
+  <si>
+    <t xml:space="preserve">environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">takes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">actions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">success </t>
+  </si>
+  <si>
+    <t xml:space="preserve">at </t>
+  </si>
+  <si>
+    <t xml:space="preserve">some </t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>Colloquially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">term </t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when </t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mimics </t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">humans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">associate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">other </t>
+  </si>
+  <si>
+    <t xml:space="preserve">human </t>
+  </si>
+  <si>
+    <t>minds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">such </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and problem </t>
+  </si>
+  <si>
+    <t>solving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine </t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural </t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep </t>
+  </si>
+  <si>
+    <t>aplicação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple </t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupervised </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimensionality </t>
+  </si>
+  <si>
+    <t>Reduction</t>
   </si>
 </sst>
 </file>
@@ -493,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +658,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -546,7 +666,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -554,7 +674,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -562,7 +682,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -570,7 +690,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -578,7 +698,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -586,7 +706,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -594,7 +714,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -602,7 +722,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -610,7 +730,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -618,7 +738,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -626,7 +746,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -634,7 +754,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -642,7 +762,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -650,23 +770,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -674,7 +794,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -682,7 +802,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -690,7 +810,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -698,7 +818,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -706,7 +826,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -714,7 +834,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -722,7 +842,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -730,7 +850,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -738,7 +858,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -746,7 +866,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -754,7 +874,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -762,7 +882,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -770,7 +890,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -778,7 +898,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -786,7 +906,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -794,13 +914,336 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A38:A73">
+    <sortCondition ref="A38"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/mywords.xlsx
+++ b/mywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>Delermando</t>
   </si>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="A78" sqref="A78:B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,6 +1240,302 @@
         <v>8</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>76</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A38:A73">
     <sortCondition ref="A38"/>

--- a/mywords.xlsx
+++ b/mywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Delermando</t>
   </si>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>solving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine </t>
-  </si>
-  <si>
-    <t>Learning</t>
   </si>
   <si>
     <t xml:space="preserve">Neural </t>
@@ -613,11 +607,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B114"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -626,47 +618,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -674,87 +666,87 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
         <v>6</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>9</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -762,39 +754,39 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -802,7 +794,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -810,271 +802,271 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
+      <c r="A29" t="s">
+        <v>73</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>21</v>
+      <c r="A30" t="s">
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1082,31 +1074,31 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>39</v>
+      <c r="A60" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1114,7 +1106,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1122,15 +1114,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1138,7 +1130,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1146,7 +1138,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1154,10 +1146,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,34 +1178,34 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B74">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,12 +1213,12 @@
         <v>71</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -1234,312 +1226,29 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>51</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>53</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>61</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>42</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>59</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>48</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>55</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>65</v>
-      </c>
-      <c r="B110">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>71</v>
-      </c>
-      <c r="B112">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>73</v>
-      </c>
-      <c r="B113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>76</v>
-      </c>
-      <c r="B114">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A38:A73">
-    <sortCondition ref="A38"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
